--- a/Documentation Software/DefinitionTrame.xlsx
+++ b/Documentation Software/DefinitionTrame.xlsx
@@ -5,17 +5,18 @@
   <workbookPr date1904="1" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/Polytech_EII_3/Projet Elec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/Documents/GitHub/Gateway_py/Documentation Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="520" windowWidth="25540" windowHeight="16360" activeTab="2"/>
+    <workbookView xWindow="1240" yWindow="1500" windowWidth="27560" windowHeight="16360" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Format trame et requete PHP" sheetId="4" r:id="rId1"/>
-    <sheet name="Format trame" sheetId="3" r:id="rId2"/>
-    <sheet name="Définition trame Station" sheetId="1" r:id="rId3"/>
-    <sheet name="Définition trame Ruche" sheetId="2" r:id="rId4"/>
+    <sheet name="Format trame et requete Station" sheetId="5" r:id="rId1"/>
+    <sheet name="Format trame et requete Rucher" sheetId="4" r:id="rId2"/>
+    <sheet name="Format trame" sheetId="3" r:id="rId3"/>
+    <sheet name="Définition trame Station" sheetId="1" r:id="rId4"/>
+    <sheet name="Définition trame Ruche" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="115">
   <si>
     <t>Liste des capteurs</t>
   </si>
@@ -243,12 +244,6 @@
   </si>
   <si>
     <t>03 : ruche externe</t>
-  </si>
-  <si>
-    <t>01 : 
-02 :
-03 :
-04:</t>
   </si>
   <si>
     <t>Trame Rucher (interne et externe)</t>
@@ -337,13 +332,58 @@
   </si>
   <si>
     <t>1 à 9</t>
+  </si>
+  <si>
+    <t>Vitesse rafale de vent</t>
+  </si>
+  <si>
+    <t>Rafale vent</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>400 - 2 000 ppm</t>
+  </si>
+  <si>
+    <t>1 ppm</t>
+  </si>
+  <si>
+    <t>Requetes php</t>
+  </si>
+  <si>
+    <t>&amp;sol</t>
+  </si>
+  <si>
+    <t>&amp;pluvio</t>
+  </si>
+  <si>
+    <t>&amp;pres</t>
+  </si>
+  <si>
+    <t>&amp;vent</t>
+  </si>
+  <si>
+    <t>&amp;vent_vit_max</t>
+  </si>
+  <si>
+    <t>&amp;dirv</t>
+  </si>
+  <si>
+    <t>&amp;co2</t>
+  </si>
+  <si>
+    <t>&amp;vib</t>
+  </si>
+  <si>
+    <t>&amp;temp_balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -492,8 +532,31 @@
       <sz val="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFA61500"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +593,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDFDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1168,8 +1243,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1203,8 +1304,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1424,165 +1543,201 @@
     <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,24 +1747,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1699,13 +1854,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1786,7 +1941,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2891,7 +3046,7 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E24" sqref="E24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2931,28 +3086,28 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
     </row>
     <row r="4" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55"/>
@@ -2984,83 +3139,83 @@
       <c r="W5" s="62"/>
       <c r="X5" s="63"/>
     </row>
-    <row r="6" spans="1:32" s="103" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="F6" s="103" t="s">
+    <row r="6" spans="1:32" s="102" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="F6" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104" t="s">
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="106"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="105"/>
     </row>
     <row r="7" spans="1:32" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="57"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122" t="s">
+      <c r="I7" s="131"/>
+      <c r="J7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="122" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122" t="s">
+      <c r="O7" s="131"/>
+      <c r="P7" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="122" t="s">
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="121"/>
-      <c r="T7" s="122" t="s">
+      <c r="S7" s="131"/>
+      <c r="T7" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="121"/>
-      <c r="V7" s="122" t="s">
+      <c r="U7" s="131"/>
+      <c r="V7" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="121"/>
+      <c r="W7" s="131"/>
       <c r="X7" s="64"/>
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
@@ -3172,23 +3327,23 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
     </row>
     <row r="11" spans="1:32" s="50" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="52"/>
@@ -3216,27 +3371,27 @@
       <c r="W12" s="50"/>
     </row>
     <row r="13" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
+      <c r="C13" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
       <c r="V13" s="61"/>
       <c r="W13" s="60"/>
     </row>
@@ -3264,149 +3419,149 @@
       <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="84"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="84"/>
-    </row>
-    <row r="16" spans="1:32" s="110" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="103" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="83"/>
+    </row>
+    <row r="16" spans="1:32" s="109" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104" t="s">
+      <c r="J16" s="103"/>
+      <c r="K16" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104" t="s">
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104" t="s">
+      <c r="V16" s="107"/>
+      <c r="W16" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="108"/>
-      <c r="W16" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
     </row>
     <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
-      <c r="B17" s="92"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="99" t="s">
+      <c r="E17" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122" t="s">
+      <c r="I17" s="131"/>
+      <c r="J17" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122" t="s">
+      <c r="K17" s="131"/>
+      <c r="L17" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="121"/>
-      <c r="N17" s="122" t="s">
+      <c r="M17" s="131"/>
+      <c r="N17" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="121"/>
-      <c r="P17" s="122" t="s">
+      <c r="O17" s="131"/>
+      <c r="P17" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="122" t="s">
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="121"/>
-      <c r="T17" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="123"/>
-      <c r="V17" s="124" t="s">
+      <c r="S17" s="131"/>
+      <c r="T17" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="133"/>
+      <c r="V17" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="121"/>
-      <c r="X17" s="85"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="84"/>
     </row>
     <row r="18" spans="1:24" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
-      <c r="B18" s="93"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="77" t="s">
         <v>49</v>
       </c>
       <c r="I18" s="43" t="s">
@@ -3437,88 +3592,86 @@
         <v>43</v>
       </c>
       <c r="R18" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S18" s="43" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="T18" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="86" t="s">
+      <c r="U18" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="85" t="s">
         <v>54</v>
       </c>
       <c r="W18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="87"/>
+      <c r="X18" s="86"/>
     </row>
     <row r="19" spans="1:24" s="50" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="79"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="102" t="s">
+      <c r="D19" s="95"/>
+      <c r="E19" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="89"/>
     </row>
     <row r="20" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123"/>
+      <c r="I20" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="W20" s="90" t="s">
         <v>76</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="112"/>
-      <c r="I20" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="W20" s="91" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="52"/>
-      <c r="G21" s="112"/>
+      <c r="G21" s="123"/>
     </row>
     <row r="22" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="52"/>
@@ -3527,19 +3680,20 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:24" s="50" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="S24" s="120"/>
     </row>
     <row r="25" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="52"/>
@@ -3556,15 +3710,15 @@
       <c r="D27" s="52"/>
       <c r="S27" s="55"/>
       <c r="T27" s="55"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
       <c r="W27" s="55"/>
     </row>
     <row r="28" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="52"/>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
-      <c r="U28" s="75"/>
+      <c r="U28" s="74"/>
       <c r="V28" s="59"/>
       <c r="W28" s="55"/>
     </row>
@@ -3687,13 +3841,1049 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
+    <mergeCell ref="U27:V27"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="I20:U20"/>
-    <mergeCell ref="U27:V27"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:K24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="1.1640625" style="50" customWidth="1"/>
+    <col min="27" max="27" width="1.83203125" style="50" customWidth="1"/>
+    <col min="28" max="32" width="10.6640625" style="50" customWidth="1"/>
+    <col min="33" max="34" width="10.83203125" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:34" ht="18" x14ac:dyDescent="0.15">
+      <c r="D3" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+    </row>
+    <row r="4" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="63"/>
+    </row>
+    <row r="6" spans="1:34" s="102" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="F6" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="105"/>
+    </row>
+    <row r="7" spans="1:34" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="131"/>
+      <c r="N7" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="131"/>
+      <c r="P7" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="131"/>
+      <c r="T7" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="131"/>
+      <c r="V7" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="137"/>
+      <c r="X7" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+    </row>
+    <row r="8" spans="1:34" s="28" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+    </row>
+    <row r="9" spans="1:34" s="50" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
+    </row>
+    <row r="10" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="I10" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+    </row>
+    <row r="11" spans="1:34" s="50" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="D12" s="52"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+    </row>
+    <row r="13" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="52"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+    </row>
+    <row r="14" spans="1:34" s="50" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B15" s="75"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+    </row>
+    <row r="16" spans="1:34" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="102"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+    </row>
+    <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="51"/>
+      <c r="B17" s="91"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+    </row>
+    <row r="18" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="52"/>
+      <c r="B18" s="92"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+    </row>
+    <row r="19" spans="1:25" s="50" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="78"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="1:25" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="1:25" s="50" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="52"/>
+    </row>
+    <row r="34" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="52"/>
+    </row>
+    <row r="35" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="52"/>
+    </row>
+    <row r="36" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="52"/>
+    </row>
+    <row r="40" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="28"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+    </row>
+    <row r="42" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="28"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+    </row>
+    <row r="43" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="28"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+    </row>
+    <row r="44" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="28"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+    </row>
+    <row r="45" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="28"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+    </row>
+    <row r="46" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="28"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+    </row>
+    <row r="47" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="28"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+    </row>
+    <row r="48" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="28"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+    </row>
+    <row r="49" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="28"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+    </row>
+    <row r="50" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="28"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+    </row>
+    <row r="51" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="28"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+    </row>
+    <row r="52" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="28"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+    </row>
+    <row r="53" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="28"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+    </row>
+    <row r="54" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="28"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+    </row>
+    <row r="55" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="28"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+    </row>
+    <row r="56" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="28"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+    </row>
+    <row r="57" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="28"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+    </row>
+    <row r="58" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="28"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+    </row>
+    <row r="59" spans="4:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="28"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I10:Y10"/>
+    <mergeCell ref="D3:Y3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,12 +4891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3746,28 +4936,28 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
     </row>
     <row r="4" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55"/>
@@ -3805,7 +4995,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>40</v>
@@ -3813,38 +5003,38 @@
       <c r="G6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122" t="s">
+      <c r="I6" s="131"/>
+      <c r="J6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122" t="s">
+      <c r="K6" s="131"/>
+      <c r="L6" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="121"/>
-      <c r="N6" s="122" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="122" t="s">
+      <c r="O6" s="131"/>
+      <c r="P6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="122" t="s">
+      <c r="Q6" s="131"/>
+      <c r="R6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="121"/>
-      <c r="T6" s="122" t="s">
+      <c r="S6" s="131"/>
+      <c r="T6" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="121"/>
-      <c r="V6" s="122" t="s">
+      <c r="U6" s="131"/>
+      <c r="V6" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="121"/>
+      <c r="W6" s="131"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="51"/>
@@ -3956,23 +5146,23 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="56"/>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
     </row>
     <row r="10" spans="1:32" s="50" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="52"/>
@@ -4000,27 +5190,27 @@
       <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
+      <c r="C12" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
       <c r="V12" s="61"/>
       <c r="W12" s="60"/>
     </row>
@@ -4048,101 +5238,101 @@
       <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:32" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="83"/>
     </row>
     <row r="15" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
-      <c r="B15" s="92"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="99" t="s">
+      <c r="E15" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122" t="s">
+      <c r="I15" s="131"/>
+      <c r="J15" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122" t="s">
+      <c r="K15" s="131"/>
+      <c r="L15" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122" t="s">
+      <c r="M15" s="131"/>
+      <c r="N15" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="121"/>
-      <c r="P15" s="122" t="s">
+      <c r="O15" s="131"/>
+      <c r="P15" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="122" t="s">
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="121"/>
-      <c r="T15" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="123"/>
-      <c r="V15" s="124" t="s">
+      <c r="S15" s="131"/>
+      <c r="T15" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="133"/>
+      <c r="V15" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="121"/>
-      <c r="X15" s="85"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="84"/>
     </row>
     <row r="16" spans="1:32" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
-      <c r="B16" s="93"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="77" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="43" t="s">
@@ -4179,84 +5369,82 @@
         <v>61</v>
       </c>
       <c r="T16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="V16" s="86" t="s">
+      <c r="U16" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="85" t="s">
         <v>54</v>
       </c>
       <c r="W16" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="X16" s="87"/>
+      <c r="X16" s="86"/>
     </row>
     <row r="17" spans="2:24" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="79"/>
-      <c r="C17" s="94" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="102" t="s">
+      <c r="D17" s="95"/>
+      <c r="E17" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="90"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="89"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="90" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="114"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="91" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="52"/>
-      <c r="G19" s="112"/>
+      <c r="G19" s="123"/>
     </row>
     <row r="20" spans="2:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D20" s="52"/>
@@ -4282,15 +5470,15 @@
       <c r="D25" s="52"/>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
       <c r="W25" s="55"/>
     </row>
     <row r="26" spans="2:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="52"/>
       <c r="S26" s="55"/>
       <c r="T26" s="55"/>
-      <c r="U26" s="75"/>
+      <c r="U26" s="74"/>
       <c r="V26" s="59"/>
       <c r="W26" s="55"/>
     </row>
@@ -4394,6 +5582,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C12:U12"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -4410,14 +5606,6 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C12:U12"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4425,18 +5613,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4450,15 +5638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:256" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -4479,7 +5667,9 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:256" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
@@ -5041,18 +6231,20 @@
         <v>1</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:256" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="1:256" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -5073,7 +6265,9 @@
       <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
@@ -5092,7 +6286,9 @@
         <v>2</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
@@ -5111,17 +6307,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:256" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="12">
         <v>255</v>
@@ -5130,9 +6328,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
@@ -5151,7 +6351,9 @@
         <v>2</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:256" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
@@ -5169,57 +6371,331 @@
       <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="17">
+        <v>255</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2</v>
+      </c>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="27"/>
+      <c r="BJ14" s="27"/>
+      <c r="BK14" s="27"/>
+      <c r="BL14" s="27"/>
+      <c r="BM14" s="27"/>
+      <c r="BN14" s="27"/>
+      <c r="BO14" s="27"/>
+      <c r="BP14" s="27"/>
+      <c r="BQ14" s="27"/>
+      <c r="BR14" s="27"/>
+      <c r="BS14" s="27"/>
+      <c r="BT14" s="27"/>
+      <c r="BU14" s="27"/>
+      <c r="BV14" s="27"/>
+      <c r="BW14" s="27"/>
+      <c r="BX14" s="27"/>
+      <c r="BY14" s="27"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" s="27"/>
+      <c r="CB14" s="27"/>
+      <c r="CC14" s="27"/>
+      <c r="CD14" s="27"/>
+      <c r="CE14" s="27"/>
+      <c r="CF14" s="27"/>
+      <c r="CG14" s="27"/>
+      <c r="CH14" s="27"/>
+      <c r="CI14" s="27"/>
+      <c r="CJ14" s="27"/>
+      <c r="CK14" s="27"/>
+      <c r="CL14" s="27"/>
+      <c r="CM14" s="27"/>
+      <c r="CN14" s="27"/>
+      <c r="CO14" s="27"/>
+      <c r="CP14" s="27"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="27"/>
+      <c r="CS14" s="27"/>
+      <c r="CT14" s="27"/>
+      <c r="CU14" s="27"/>
+      <c r="CV14" s="27"/>
+      <c r="CW14" s="27"/>
+      <c r="CX14" s="27"/>
+      <c r="CY14" s="27"/>
+      <c r="CZ14" s="27"/>
+      <c r="DA14" s="27"/>
+      <c r="DB14" s="27"/>
+      <c r="DC14" s="27"/>
+      <c r="DD14" s="27"/>
+      <c r="DE14" s="27"/>
+      <c r="DF14" s="27"/>
+      <c r="DG14" s="27"/>
+      <c r="DH14" s="27"/>
+      <c r="DI14" s="27"/>
+      <c r="DJ14" s="27"/>
+      <c r="DK14" s="27"/>
+      <c r="DL14" s="27"/>
+      <c r="DM14" s="27"/>
+      <c r="DN14" s="27"/>
+      <c r="DO14" s="27"/>
+      <c r="DP14" s="27"/>
+      <c r="DQ14" s="27"/>
+      <c r="DR14" s="27"/>
+      <c r="DS14" s="27"/>
+      <c r="DT14" s="27"/>
+      <c r="DU14" s="27"/>
+      <c r="DV14" s="27"/>
+      <c r="DW14" s="27"/>
+      <c r="DX14" s="27"/>
+      <c r="DY14" s="27"/>
+      <c r="DZ14" s="27"/>
+      <c r="EA14" s="27"/>
+      <c r="EB14" s="27"/>
+      <c r="EC14" s="27"/>
+      <c r="ED14" s="27"/>
+      <c r="EE14" s="27"/>
+      <c r="EF14" s="27"/>
+      <c r="EG14" s="27"/>
+      <c r="EH14" s="27"/>
+      <c r="EI14" s="27"/>
+      <c r="EJ14" s="27"/>
+      <c r="EK14" s="27"/>
+      <c r="EL14" s="27"/>
+      <c r="EM14" s="27"/>
+      <c r="EN14" s="27"/>
+      <c r="EO14" s="27"/>
+      <c r="EP14" s="27"/>
+      <c r="EQ14" s="27"/>
+      <c r="ER14" s="27"/>
+      <c r="ES14" s="27"/>
+      <c r="ET14" s="27"/>
+      <c r="EU14" s="27"/>
+      <c r="EV14" s="27"/>
+      <c r="EW14" s="27"/>
+      <c r="EX14" s="27"/>
+      <c r="EY14" s="27"/>
+      <c r="EZ14" s="27"/>
+      <c r="FA14" s="27"/>
+      <c r="FB14" s="27"/>
+      <c r="FC14" s="27"/>
+      <c r="FD14" s="27"/>
+      <c r="FE14" s="27"/>
+      <c r="FF14" s="27"/>
+      <c r="FG14" s="27"/>
+      <c r="FH14" s="27"/>
+      <c r="FI14" s="27"/>
+      <c r="FJ14" s="27"/>
+      <c r="FK14" s="27"/>
+      <c r="FL14" s="27"/>
+      <c r="FM14" s="27"/>
+      <c r="FN14" s="27"/>
+      <c r="FO14" s="27"/>
+      <c r="FP14" s="27"/>
+      <c r="FQ14" s="27"/>
+      <c r="FR14" s="27"/>
+      <c r="FS14" s="27"/>
+      <c r="FT14" s="27"/>
+      <c r="FU14" s="27"/>
+      <c r="FV14" s="27"/>
+      <c r="FW14" s="27"/>
+      <c r="FX14" s="27"/>
+      <c r="FY14" s="27"/>
+      <c r="FZ14" s="27"/>
+      <c r="GA14" s="27"/>
+      <c r="GB14" s="27"/>
+      <c r="GC14" s="27"/>
+      <c r="GD14" s="27"/>
+      <c r="GE14" s="27"/>
+      <c r="GF14" s="27"/>
+      <c r="GG14" s="27"/>
+      <c r="GH14" s="27"/>
+      <c r="GI14" s="27"/>
+      <c r="GJ14" s="27"/>
+      <c r="GK14" s="27"/>
+      <c r="GL14" s="27"/>
+      <c r="GM14" s="27"/>
+      <c r="GN14" s="27"/>
+      <c r="GO14" s="27"/>
+      <c r="GP14" s="27"/>
+      <c r="GQ14" s="27"/>
+      <c r="GR14" s="27"/>
+      <c r="GS14" s="27"/>
+      <c r="GT14" s="27"/>
+      <c r="GU14" s="27"/>
+      <c r="GV14" s="27"/>
+      <c r="GW14" s="27"/>
+      <c r="GX14" s="27"/>
+      <c r="GY14" s="27"/>
+      <c r="GZ14" s="27"/>
+      <c r="HA14" s="27"/>
+      <c r="HB14" s="27"/>
+      <c r="HC14" s="27"/>
+      <c r="HD14" s="27"/>
+      <c r="HE14" s="27"/>
+      <c r="HF14" s="27"/>
+      <c r="HG14" s="27"/>
+      <c r="HH14" s="27"/>
+      <c r="HI14" s="27"/>
+      <c r="HJ14" s="27"/>
+      <c r="HK14" s="27"/>
+      <c r="HL14" s="27"/>
+      <c r="HM14" s="27"/>
+      <c r="HN14" s="27"/>
+      <c r="HO14" s="27"/>
+      <c r="HP14" s="27"/>
+      <c r="HQ14" s="27"/>
+      <c r="HR14" s="27"/>
+      <c r="HS14" s="27"/>
+      <c r="HT14" s="27"/>
+      <c r="HU14" s="27"/>
+      <c r="HV14" s="27"/>
+      <c r="HW14" s="27"/>
+      <c r="HX14" s="27"/>
+      <c r="HY14" s="27"/>
+      <c r="HZ14" s="27"/>
+      <c r="IA14" s="27"/>
+      <c r="IB14" s="27"/>
+      <c r="IC14" s="27"/>
+      <c r="ID14" s="27"/>
+      <c r="IE14" s="27"/>
+      <c r="IF14" s="27"/>
+      <c r="IG14" s="27"/>
+      <c r="IH14" s="27"/>
+      <c r="II14" s="27"/>
+      <c r="IJ14" s="27"/>
+      <c r="IK14" s="27"/>
+      <c r="IL14" s="27"/>
+      <c r="IM14" s="27"/>
+      <c r="IN14" s="27"/>
+      <c r="IO14" s="27"/>
+      <c r="IP14" s="27"/>
+      <c r="IQ14" s="27"/>
+      <c r="IR14" s="27"/>
+      <c r="IS14" s="27"/>
+      <c r="IT14" s="27"/>
+      <c r="IU14" s="27"/>
+      <c r="IV14" s="27"/>
+    </row>
+    <row r="15" spans="1:256" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>16</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:256" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1</v>
-      </c>
-      <c r="D14" s="35">
-        <v>16</v>
-      </c>
-      <c r="E14" s="35">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+      <c r="G15" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C16" s="22">
         <v>64</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="24">
-        <f>SUM(E3:E14)</f>
-        <v>19</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="E16" s="24">
+        <f>SUM(E3:E15)</f>
+        <v>21</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="26">
-        <f>C$15-E$15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I17"/>
+      <c r="G16" s="26">
+        <f>C$16-E$16</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5236,18 +6712,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5261,15 +6737,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:256" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5290,7 +6766,9 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:256" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
@@ -5309,7 +6787,7 @@
     </row>
     <row r="4" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -5318,13 +6796,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:256" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="31"/>
@@ -5333,13 +6811,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -5348,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -5384,18 +6862,20 @@
         <v>1</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:256" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
     </row>
     <row r="10" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
@@ -5414,7 +6894,9 @@
         <v>2</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
@@ -5433,7 +6915,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:256" s="39" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37" t="s">
@@ -5452,7 +6936,9 @@
         <v>2</v>
       </c>
       <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -5720,7 +7206,9 @@
         <v>1</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
@@ -5739,33 +7227,37 @@
         <v>2</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:256" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>74</v>
+        <v>104</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:256" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="35">
         <v>1</v>
@@ -5777,7 +7269,9 @@
         <v>1</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
@@ -5792,14 +7286,14 @@
       </c>
       <c r="E17" s="24">
         <f>SUM(E4:E16)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="26">
         <f>C$17-E$17</f>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation Software/DefinitionTrame.xlsx
+++ b/Documentation Software/DefinitionTrame.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1500" windowWidth="27560" windowHeight="16360" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="11680" yWindow="0" windowWidth="17120" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Format trame et requete Station" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>Liste des capteurs</t>
   </si>
@@ -606,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1269,6 +1269,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1323,7 +1347,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1687,6 +1711,30 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1708,30 +1756,6 @@
     <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,6 +1770,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3045,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:K24"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3086,28 +3116,28 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
     </row>
     <row r="4" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55"/>
@@ -3184,38 +3214,38 @@
       <c r="G7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="132" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="O7" s="123"/>
+      <c r="P7" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="132" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="131"/>
-      <c r="T7" s="132" t="s">
+      <c r="S7" s="123"/>
+      <c r="T7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="131"/>
-      <c r="V7" s="132" t="s">
+      <c r="U7" s="123"/>
+      <c r="V7" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="131"/>
+      <c r="W7" s="123"/>
       <c r="X7" s="64"/>
       <c r="Y7" s="51"/>
       <c r="Z7" s="51"/>
@@ -3327,23 +3357,23 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
     </row>
     <row r="11" spans="1:32" s="50" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="52"/>
@@ -3371,27 +3401,27 @@
       <c r="W12" s="50"/>
     </row>
     <row r="13" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
       <c r="V13" s="61"/>
       <c r="W13" s="60"/>
     </row>
@@ -3442,6 +3472,7 @@
       <c r="V15" s="81"/>
       <c r="W15" s="82"/>
       <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
     </row>
     <row r="16" spans="1:32" s="109" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="102"/>
@@ -3481,8 +3512,10 @@
       <c r="W16" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="102"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="108" t="s">
+        <v>85</v>
+      </c>
       <c r="Z16" s="102"/>
       <c r="AA16" s="102"/>
       <c r="AB16" s="102"/>
@@ -3491,7 +3524,7 @@
       <c r="AE16" s="102"/>
       <c r="AF16" s="102"/>
     </row>
-    <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="91"/>
       <c r="C17" s="47" t="s">
@@ -3509,41 +3542,44 @@
       <c r="G17" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132" t="s">
+      <c r="I17" s="123"/>
+      <c r="J17" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="131"/>
-      <c r="L17" s="132" t="s">
+      <c r="K17" s="123"/>
+      <c r="L17" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132" t="s">
+      <c r="M17" s="123"/>
+      <c r="N17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132" t="s">
+      <c r="O17" s="123"/>
+      <c r="P17" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132" t="s">
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="131"/>
-      <c r="T17" s="132" t="s">
+      <c r="S17" s="123"/>
+      <c r="T17" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="133"/>
-      <c r="V17" s="134" t="s">
+      <c r="U17" s="127"/>
+      <c r="V17" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="131"/>
-      <c r="X17" s="84"/>
-    </row>
-    <row r="18" spans="1:24" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="123"/>
+      <c r="X17" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="141"/>
+    </row>
+    <row r="18" spans="1:25" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="92"/>
       <c r="C18" s="44" t="s">
@@ -3609,9 +3645,14 @@
       <c r="W18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="86"/>
-    </row>
-    <row r="19" spans="1:24" s="50" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="50" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="78"/>
       <c r="C19" s="93" t="s">
         <v>69</v>
@@ -3621,7 +3662,7 @@
         <v>70</v>
       </c>
       <c r="F19" s="89"/>
-      <c r="G19" s="122"/>
+      <c r="G19" s="130"/>
       <c r="H19" s="78"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
@@ -3638,67 +3679,68 @@
       <c r="U19" s="79"/>
       <c r="V19" s="87"/>
       <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-    </row>
-    <row r="20" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="124" t="s">
+      <c r="X19" s="88"/>
+      <c r="Y19" s="89"/>
+    </row>
+    <row r="20" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125" t="s">
+      <c r="D20" s="132"/>
+      <c r="E20" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123"/>
-      <c r="I20" s="124" t="s">
+      <c r="F20" s="133"/>
+      <c r="G20" s="131"/>
+      <c r="I20" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
       <c r="W20" s="90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="52"/>
-      <c r="G21" s="123"/>
-    </row>
-    <row r="22" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="131"/>
+    </row>
+    <row r="22" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:24" s="50" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="126" t="s">
+    <row r="24" spans="1:25" s="50" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127" t="s">
+      <c r="D24" s="134"/>
+      <c r="E24" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
       <c r="S24" s="120"/>
     </row>
-    <row r="25" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="52"/>
       <c r="S26" s="55"/>
       <c r="T26" s="55"/>
@@ -3706,15 +3748,15 @@
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
     </row>
-    <row r="27" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D27" s="52"/>
       <c r="S27" s="55"/>
       <c r="T27" s="55"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
       <c r="W27" s="55"/>
     </row>
-    <row r="28" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D28" s="52"/>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
@@ -3722,7 +3764,7 @@
       <c r="V28" s="59"/>
       <c r="W28" s="55"/>
     </row>
-    <row r="29" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D29" s="52"/>
       <c r="S29" s="55"/>
       <c r="T29" s="55"/>
@@ -3730,13 +3772,13 @@
       <c r="V29" s="55"/>
       <c r="W29" s="55"/>
     </row>
-    <row r="30" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="52"/>
     </row>
     <row r="33" spans="4:4" s="50" customFormat="1" x14ac:dyDescent="0.15">
@@ -3821,16 +3863,15 @@
       <c r="D59" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D3:W3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
+  <mergeCells count="27">
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I20:U20"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:K24"/>
     <mergeCell ref="I10:W10"/>
     <mergeCell ref="C13:U13"/>
     <mergeCell ref="H17:I17"/>
@@ -3841,13 +3882,15 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I20:U20"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="D3:W3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3858,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3902,30 +3945,30 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:34" ht="18" x14ac:dyDescent="0.15">
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
     </row>
     <row r="4" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55"/>
@@ -4006,42 +4049,42 @@
       <c r="G7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="132" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="131"/>
-      <c r="P7" s="132" t="s">
+      <c r="O7" s="123"/>
+      <c r="P7" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="132" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="131"/>
-      <c r="T7" s="132" t="s">
+      <c r="S7" s="123"/>
+      <c r="T7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="131"/>
+      <c r="U7" s="123"/>
       <c r="V7" s="136" t="s">
         <v>101</v>
       </c>
       <c r="W7" s="137"/>
-      <c r="X7" s="132" t="s">
+      <c r="X7" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="131"/>
+      <c r="Y7" s="123"/>
       <c r="Z7" s="64"/>
       <c r="AA7" s="51"/>
       <c r="AB7" s="51"/>
@@ -4161,25 +4204,25 @@
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
     </row>
     <row r="11" spans="1:34" s="50" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="52"/>
@@ -4895,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -4936,28 +4979,28 @@
       <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
     </row>
     <row r="4" spans="1:32" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55"/>
@@ -5003,38 +5046,38 @@
       <c r="G6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132" t="s">
+      <c r="I6" s="123"/>
+      <c r="J6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132" t="s">
+      <c r="K6" s="123"/>
+      <c r="L6" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132" t="s">
+      <c r="M6" s="123"/>
+      <c r="N6" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="131"/>
-      <c r="P6" s="132" t="s">
+      <c r="O6" s="123"/>
+      <c r="P6" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="132" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="131"/>
-      <c r="T6" s="132" t="s">
+      <c r="S6" s="123"/>
+      <c r="T6" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="131"/>
-      <c r="V6" s="132" t="s">
+      <c r="U6" s="123"/>
+      <c r="V6" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="131"/>
+      <c r="W6" s="123"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="51"/>
@@ -5146,23 +5189,23 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="56"/>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
     </row>
     <row r="10" spans="1:32" s="50" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="52"/>
@@ -5190,27 +5233,27 @@
       <c r="W11" s="50"/>
     </row>
     <row r="12" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
       <c r="V12" s="61"/>
       <c r="W12" s="60"/>
     </row>
@@ -5280,38 +5323,38 @@
       <c r="G15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="130" t="s">
+      <c r="H15" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132" t="s">
+      <c r="I15" s="123"/>
+      <c r="J15" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132" t="s">
+      <c r="K15" s="123"/>
+      <c r="L15" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="132" t="s">
+      <c r="M15" s="123"/>
+      <c r="N15" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="131"/>
-      <c r="P15" s="132" t="s">
+      <c r="O15" s="123"/>
+      <c r="P15" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132" t="s">
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="131"/>
-      <c r="T15" s="132" t="s">
+      <c r="S15" s="123"/>
+      <c r="T15" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="133"/>
-      <c r="V15" s="134" t="s">
+      <c r="U15" s="127"/>
+      <c r="V15" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="131"/>
+      <c r="W15" s="123"/>
       <c r="X15" s="84"/>
     </row>
     <row r="16" spans="1:32" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5392,7 +5435,7 @@
         <v>70</v>
       </c>
       <c r="F17" s="89"/>
-      <c r="G17" s="122"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="78"/>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
@@ -5412,31 +5455,31 @@
       <c r="X17" s="89"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125" t="s">
+      <c r="D18" s="132"/>
+      <c r="E18" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="124" t="s">
+      <c r="I18" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
       <c r="V18" s="50"/>
       <c r="W18" s="90" t="s">
         <v>76</v>
@@ -5444,7 +5487,7 @@
     </row>
     <row r="19" spans="2:24" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="52"/>
-      <c r="G19" s="123"/>
+      <c r="G19" s="131"/>
     </row>
     <row r="20" spans="2:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D20" s="52"/>
@@ -5470,8 +5513,8 @@
       <c r="D25" s="52"/>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
       <c r="W25" s="55"/>
     </row>
     <row r="26" spans="2:24" s="50" customFormat="1" x14ac:dyDescent="0.15">
@@ -5582,14 +5625,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C12:U12"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -5606,6 +5641,14 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C12:U12"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5624,7 +5667,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6719,7 +6762,7 @@
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
